--- a/XLSX transformados/AL_J1_jugadores.xlsx
+++ b/XLSX transformados/AL_J1_jugadores.xlsx
@@ -763,11 +763,7 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -897,11 +893,7 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1031,11 +1023,7 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1165,11 +1153,7 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1299,11 +1283,7 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1433,11 +1413,7 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1567,11 +1543,7 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1701,11 +1673,7 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1835,11 +1803,7 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1969,11 +1933,7 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2103,11 +2063,7 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2135,7 +2091,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2237,11 +2193,7 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2269,7 +2221,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2371,11 +2323,7 @@
       <c r="AM14" t="n">
         <v>1</v>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2403,7 +2351,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2505,11 +2453,7 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2537,7 +2481,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2639,11 +2583,7 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2671,7 +2611,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2773,11 +2713,7 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2805,7 +2741,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2907,11 +2843,7 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2939,7 +2871,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -3041,11 +2973,7 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3073,7 +3001,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -3175,11 +3103,7 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3207,7 +3131,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -3309,11 +3233,7 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
